--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2ND DEGREE\16. Database management system\dbms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\truongdd\learning\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6151D5-E583-4330-BC3C-B55AED901E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B91B935-FCBF-47CE-B453-C5B50F75923A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F0C101B9-909F-4180-BC6D-754D1586D853}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F0C101B9-909F-4180-BC6D-754D1586D853}"/>
   </bookViews>
   <sheets>
     <sheet name="Lần 1 - câu 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>xl1(A)</t>
   </si>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>xl(B) chờ</t>
+  </si>
+  <si>
+    <t>Chèn khóa vào tập lịch</t>
+  </si>
+  <si>
+    <t>sl(a)</t>
+  </si>
+  <si>
+    <t>sl(c)</t>
+  </si>
+  <si>
+    <t>xl(c)</t>
+  </si>
+  <si>
+    <t>ul(a)</t>
+  </si>
+  <si>
+    <t>ul(c)</t>
+  </si>
+  <si>
+    <t>sl(b)</t>
+  </si>
+  <si>
+    <t>ul(b)</t>
   </si>
 </sst>
 </file>
@@ -280,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +318,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1808FFEF-AA2A-4170-8A4D-B817EF110B07}">
-  <dimension ref="A3:L39"/>
+  <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,37 +886,37 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
@@ -896,145 +929,184 @@
       <c r="E10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="6"/>
+      <c r="I20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>34</v>
@@ -1042,7 +1114,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
         <v>55</v>
@@ -1050,7 +1122,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
@@ -1058,7 +1130,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
         <v>7</v>
@@ -1066,7 +1138,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -1074,7 +1146,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -1082,7 +1154,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>37</v>
@@ -1090,7 +1162,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1098,7 +1170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1106,7 +1178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -1114,7 +1186,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
@@ -1180,5 +1252,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>